--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.954399999999993</v>
+        <v>-6.896799999999993</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.35840000000003</v>
+        <v>-21.30570000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.144899999999994</v>
+        <v>-8.282199999999991</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.48299999999998</v>
+        <v>-20.48659999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.3139</v>
+        <v>-21.3022</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.52500000000003</v>
+        <v>-21.29470000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.34690000000003</v>
+        <v>-22.41490000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
